--- a/data/trans_orig/Q64C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q64C-Edad-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de horas que trabajan a la semana</t>
+          <t>Número medio de horas que trabaja a la semana</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>38,06</t>
+          <t>38,47</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>33,89</t>
+          <t>33,84</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>36,01</t>
+          <t>36,35</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>34,18; 40,52</t>
+          <t>34,82; 40,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,9; 36,52</t>
+          <t>30,76; 36,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>33,64; 37,97</t>
+          <t>34,04; 38,27</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>38,34</t>
+          <t>38,19</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>35,24</t>
+          <t>32,85</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>36,84</t>
+          <t>35,48</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>37,2; 39,28</t>
+          <t>36,92; 39,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>32,78; 36,58</t>
+          <t>26,86; 36,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>35,38; 37,64</t>
+          <t>29,58; 37,39</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>39,7</t>
+          <t>39,73</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>35,37</t>
+          <t>35,39</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>37,79</t>
+          <t>37,85</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>38,82; 40,59</t>
+          <t>38,88; 40,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>34,45; 36,16</t>
+          <t>34,49; 36,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>37,13; 38,35</t>
+          <t>37,2; 38,41</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>37,55</t>
+          <t>29,7</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>35,45</t>
+          <t>35,79</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>36,61</t>
+          <t>31,99</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,57; 40,79</t>
+          <t>16,32; 40,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,85; 36,27</t>
+          <t>34,56; 36,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,11; 38,36</t>
+          <t>21,43; 38,5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>40,68</t>
+          <t>40,66</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>35,86</t>
+          <t>35,89</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>38,7</t>
+          <t>38,72</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>39,72; 41,58</t>
+          <t>39,73; 41,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,87; 36,79</t>
+          <t>34,88; 36,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>37,98; 39,38</t>
+          <t>38,01; 39,39</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>41,93</t>
+          <t>30,0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1366,12 +1366,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>31,91</t>
+          <t>30,67</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>38,87</t>
+          <t>39,21</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,14 +1391,14 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>35,13</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>35,02</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>39,08</t>
-        </is>
-      </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
           <t>28,24</t>
@@ -1406,12 +1406,12 @@
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>34,01</t>
+          <t>33,55</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>37,07</t>
+          <t>37,2</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>32,21; 50,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1434,12 +1434,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,17; 40,89</t>
+          <t>16,1; 42,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>36,55; 41,28</t>
+          <t>36,86; 41,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,12 +1459,12 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>29,54; 38,59</t>
+          <t>29,76; 38,62</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>28,11; 46,97</t>
+          <t>20,58; 46,32</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1474,19 +1474,19 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>25,44; 40,09</t>
+          <t>24,54; 40,59</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>33,84; 39,19</t>
+          <t>34,47; 39,44</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>41,15</t>
+          <t>46,64</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>41,25</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>39,44</t>
+          <t>40,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>38,84</t>
+          <t>34,67</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>37,13</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>35,84</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>34,92</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>35,35</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>39,74</t>
+          <t>46,64</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>39,08</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>37,52</t>
+          <t>40,0</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>37,27</t>
+          <t>34,67</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>40,0; 50,0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>30,0; 40,0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>40,0; 50,0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>30,0; 40,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>41,15</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>41,25</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>39,44</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>35,7</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>37,13</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>35,84</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>34,92</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>34,87</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>39,74</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>39,08</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>37,52</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>35,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>40,67; 41,6</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>40,77; 41,83</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>38,87; 40,08</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>35,21; 39,87</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>25,15; 39,84</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>36,34; 37,94</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>35,09; 36,67</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>34,11; 35,66</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>34,59; 35,87</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>32,48; 35,82</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>39,34; 40,18</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>38,6; 39,51</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>37,05; 38,01</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>35,46; 37,9</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>29,1; 37,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_orig/Q64C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q64C-Edad-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>37,62; 41,28</t>
+          <t>37,64; 41,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>37,27; 42,02</t>
+          <t>37,2; 42,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>32,79; 38,59</t>
+          <t>32,67; 38,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>34,82; 40,7</t>
+          <t>35,18; 40,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>34,73; 38,65</t>
+          <t>34,68; 38,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,14; 36,26</t>
+          <t>30,82; 36,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>32,2; 36,78</t>
+          <t>32,06; 36,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,76; 36,47</t>
+          <t>30,81; 36,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>36,83; 39,45</t>
+          <t>36,85; 39,54</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>34,47; 38,26</t>
+          <t>34,52; 38,4</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>33,34; 36,96</t>
+          <t>33,37; 36,96</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>34,04; 38,27</t>
+          <t>34,12; 38,4</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>39,52; 41,13</t>
+          <t>39,48; 41,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>39,47; 41,55</t>
+          <t>39,41; 41,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>37,34; 39,71</t>
+          <t>37,34; 39,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>36,92; 39,19</t>
+          <t>36,98; 39,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>35,14; 37,73</t>
+          <t>35,14; 37,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,88; 37,17</t>
+          <t>34,94; 37,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,7; 36,55</t>
+          <t>33,54; 36,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,86; 36,38</t>
+          <t>26,56; 36,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>38,11; 39,58</t>
+          <t>38,12; 39,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>37,84; 39,49</t>
+          <t>37,87; 39,41</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>36,12; 37,93</t>
+          <t>36,09; 37,99</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>29,58; 37,39</t>
+          <t>30,69; 37,47</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>40,67; 42,61</t>
+          <t>40,74; 42,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>40,56; 42,4</t>
+          <t>40,63; 42,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>38,82; 40,79</t>
+          <t>38,77; 40,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>38,88; 40,58</t>
+          <t>38,86; 40,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>35,49; 38,48</t>
+          <t>35,47; 38,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>34,17; 37,02</t>
+          <t>34,24; 37,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>33,52; 36,23</t>
+          <t>33,56; 36,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>34,49; 36,17</t>
+          <t>34,43; 36,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>39,15; 40,71</t>
+          <t>39,21; 40,73</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>38,25; 39,96</t>
+          <t>38,37; 39,98</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>36,89; 38,59</t>
+          <t>36,95; 38,63</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>37,2; 38,41</t>
+          <t>37,22; 38,46</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,76; 42,65</t>
+          <t>40,8; 42,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>40,8; 42,65</t>
+          <t>40,77; 42,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,09; 41,33</t>
+          <t>39,12; 41,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,32; 40,81</t>
+          <t>16,16; 40,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>38,11; 42,05</t>
+          <t>38,09; 42,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,09; 37,68</t>
+          <t>33,83; 37,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,38; 36,7</t>
+          <t>33,36; 36,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34,56; 36,77</t>
+          <t>34,61; 36,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>40,34; 42,11</t>
+          <t>40,4; 42,11</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>38,42; 40,32</t>
+          <t>38,38; 40,24</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>37,12; 39,07</t>
+          <t>37,16; 39,09</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>21,43; 38,5</t>
+          <t>20,56; 38,47</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>41,2; 44,21</t>
+          <t>41,18; 44,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40,98; 44,42</t>
+          <t>41,07; 44,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>38,82; 42,18</t>
+          <t>38,68; 42,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>39,73; 41,55</t>
+          <t>39,8; 41,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>34,02; 39,81</t>
+          <t>33,67; 39,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>36,77; 42,0</t>
+          <t>36,98; 41,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>32,3; 36,98</t>
+          <t>32,59; 37,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,88; 36,79</t>
+          <t>34,78; 36,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>39,63; 42,34</t>
+          <t>39,6; 42,43</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>40,4; 43,12</t>
+          <t>40,41; 43,21</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>36,9; 39,71</t>
+          <t>37,02; 39,73</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>38,01; 39,39</t>
+          <t>38,01; 39,36</t>
         </is>
       </c>
     </row>
@@ -1434,12 +1434,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,1; 42,0</t>
+          <t>16,1; 41,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>36,86; 41,74</t>
+          <t>37,05; 41,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1454,32 +1454,32 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>24,13; 42,1</t>
+          <t>23,96; 42,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>29,76; 38,62</t>
+          <t>29,35; 38,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,58; 46,32</t>
+          <t>19,72; 46,11</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>16,16; 37,28</t>
+          <t>18,79; 37,29</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>24,54; 40,59</t>
+          <t>23,61; 40,09</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>34,47; 39,44</t>
+          <t>34,33; 39,34</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>40,67; 41,6</t>
+          <t>40,69; 41,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>40,77; 41,83</t>
+          <t>40,71; 41,75</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>38,87; 40,08</t>
+          <t>38,84; 40,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>25,15; 39,84</t>
+          <t>25,93; 39,89</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>36,34; 37,94</t>
+          <t>36,34; 37,83</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>35,09; 36,67</t>
+          <t>35,07; 36,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>34,11; 35,66</t>
+          <t>34,16; 35,67</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>32,48; 35,82</t>
+          <t>32,49; 35,82</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>39,34; 40,18</t>
+          <t>39,36; 40,13</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>38,6; 39,51</t>
+          <t>38,67; 39,51</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>37,05; 38,01</t>
+          <t>36,99; 37,96</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>29,1; 37,82</t>
+          <t>28,16; 37,84</t>
         </is>
       </c>
     </row>
